--- a/DiemDanh/diem_danh.xlsx
+++ b/DiemDanh/diem_danh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,34 +466,274 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nhut</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CN2302D</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>19:30:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nhut</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CN2302D</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>00:02:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nhut</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CN2302D</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>00:02:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nhut</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CN2302D</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>00:06:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nhut</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CN2302D</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>00:23:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nhut</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CN2302D</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>00:23:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nhut</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CN2302D</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>00:24:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nhut</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CN2302D</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>00:24:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>123456</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Nhut</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CN2302D</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>19:30:35</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nhut</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CN2302D</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>00:24:59</t>
         </is>
       </c>
     </row>
